--- a/biology/Zoologie/Aepisaurus/Aepisaurus.xlsx
+++ b/biology/Zoologie/Aepisaurus/Aepisaurus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Aepisaurus elephantinus
 Aepisaurus (« lézard élevé ») est un genre éteint de dinosaures qui vivait au Crétacé inférieur (Albien), soit environ il y a de 113 et 100,5 Ma (millions d'années).
 Seul un humérus de ce sauropode a été retrouvé, en France, à Bédoin au pied du Mont Ventoux (Vaucluse), dans la formation du Grès Vert (Albien). Il est possible qu'il ait possédé des plaques qui formaient une armure.
-Il a été nommé Aepisaurus elephantinus par Paul Gervais en 1852[1]. Il est considéré par certains comme un sauropode incertae sedis.
+Il a été nommé Aepisaurus elephantinus par Paul Gervais en 1852. Il est considéré par certains comme un sauropode incertae sedis.
 </t>
         </is>
       </c>
@@ -514,7 +526,9 @@
           <t>Généralités</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Son nom signifie « grand reptile »
 Époque :  Crétacé (- 145 Ma à - 66 Ma)
@@ -548,9 +562,11 @@
           <t>Historique de la découverte</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'humérus d'Aepisaurus elephantinus fut découvert en 1841 par Prosper Renaux (1793–1852), architecte du département de Vaucluse. Renaux est à ce titre le premier à avoir signalé des restes de dinosaures dans le Crétacé provençal[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'humérus d'Aepisaurus elephantinus fut découvert en 1841 par Prosper Renaux (1793–1852), architecte du département de Vaucluse. Renaux est à ce titre le premier à avoir signalé des restes de dinosaures dans le Crétacé provençal.
 </t>
         </is>
       </c>
@@ -579,7 +595,9 @@
           <t>Liens internes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Voir Liste des dinosaures</t>
         </is>
